--- a/Sharon-Alawode Assessment_ Excel.xlsx
+++ b/Sharon-Alawode Assessment_ Excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5415" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5415" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="1" r:id="rId1"/>
@@ -1660,8 +1660,8 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);@_)"/>
     <numFmt numFmtId="165" formatCode="_-&quot;₦&quot;* #,##0_-;\-&quot;₦&quot;* #,##0_-;_-&quot;₦&quot;* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2266,6 +2266,24 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2308,30 +2326,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2340,6 +2334,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2510,7 +2510,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14363700" y="333375"/>
+          <a:off x="14363700" y="152400"/>
           <a:ext cx="6350000" cy="5397500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2925,71 +2925,71 @@
     <row r="2" spans="4:9" ht="14.25" customHeight="1"/>
     <row r="3" spans="4:9" ht="14.25" customHeight="1"/>
     <row r="4" spans="4:9" ht="14.25" customHeight="1">
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="4:9" ht="14.25" customHeight="1">
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="4:9" ht="14.25" customHeight="1"/>
     <row r="7" spans="4:9" ht="14.25" customHeight="1"/>
     <row r="8" spans="4:9" ht="14.25" customHeight="1"/>
     <row r="9" spans="4:9" ht="14.25" customHeight="1">
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="4:9" ht="14.25" customHeight="1">
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="61"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="4:9" ht="14.25" customHeight="1">
       <c r="D11" s="1"/>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="4:9" ht="14.25" customHeight="1">
       <c r="D12" s="1"/>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="4:9" ht="14.25" customHeight="1">
       <c r="D13" s="3"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="4:9" ht="14.25" customHeight="1"/>
@@ -3996,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView showGridLines="0" topLeftCell="C56" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4023,29 +4023,29 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:5" ht="14.25" customHeight="1">
-      <c r="B4" s="65"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" ht="24" customHeight="1">
-      <c r="B5" s="65"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" ht="24" customHeight="1">
-      <c r="B6" s="66"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5" ht="14.25" customHeight="1">
@@ -4196,15 +4196,15 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="2:9" ht="14.25" customHeight="1">
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="69" t="s">
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="70"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="2:9" ht="14.25" customHeight="1">
       <c r="B23" s="13" t="s">
@@ -4371,12 +4371,12 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="2:11" ht="59.25" customHeight="1">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
@@ -4387,10 +4387,10 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -4417,10 +4417,10 @@
       <c r="C39" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="80" t="s">
+      <c r="E39" s="54" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="25" t="s">
@@ -4445,10 +4445,10 @@
       <c r="C40" s="10">
         <v>2018</v>
       </c>
-      <c r="D40" s="83">
+      <c r="D40" s="57">
         <v>2039736</v>
       </c>
-      <c r="E40" s="83">
+      <c r="E40" s="57">
         <v>8931383</v>
       </c>
       <c r="F40" s="27">
@@ -4459,15 +4459,15 @@
       <c r="H40" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="82">
+      <c r="I40" s="56">
         <f>SUM(Traning_budget)</f>
         <v>87226070</v>
       </c>
-      <c r="J40" s="82">
+      <c r="J40" s="56">
         <f>SUM(Traning_cost)</f>
         <v>189621604</v>
       </c>
-      <c r="K40" s="83">
+      <c r="K40" s="57">
         <f>SUM(difference)</f>
         <v>-102395534</v>
       </c>
@@ -4479,10 +4479,10 @@
       <c r="C41" s="10">
         <v>2018</v>
       </c>
-      <c r="D41" s="83">
+      <c r="D41" s="57">
         <v>1500349</v>
       </c>
-      <c r="E41" s="83">
+      <c r="E41" s="57">
         <v>2058103</v>
       </c>
       <c r="F41" s="27">
@@ -4493,15 +4493,15 @@
       <c r="H41" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="82">
+      <c r="I41" s="56">
         <f>AVERAGE(Traning_budget)</f>
         <v>2492173.4285714286</v>
       </c>
-      <c r="J41" s="82">
+      <c r="J41" s="56">
         <f>AVERAGE(Traning_cost)</f>
         <v>5417760.114285714</v>
       </c>
-      <c r="K41" s="83">
+      <c r="K41" s="57">
         <f>AVERAGE(difference)</f>
         <v>-2925586.6857142858</v>
       </c>
@@ -4513,10 +4513,10 @@
       <c r="C42" s="10">
         <v>2018</v>
       </c>
-      <c r="D42" s="83">
+      <c r="D42" s="57">
         <v>1408171</v>
       </c>
-      <c r="E42" s="83">
+      <c r="E42" s="57">
         <v>8387090</v>
       </c>
       <c r="F42" s="27">
@@ -4527,7 +4527,7 @@
       <c r="H42" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="81">
+      <c r="I42" s="55">
         <f>COUNT(Traning_budget)</f>
         <v>35</v>
       </c>
@@ -4535,7 +4535,7 @@
         <f>COUNT(Traning_cost)</f>
         <v>35</v>
       </c>
-      <c r="K42" s="84">
+      <c r="K42" s="58">
         <f>COUNT(difference)</f>
         <v>35</v>
       </c>
@@ -4547,10 +4547,10 @@
       <c r="C43" s="10">
         <v>2018</v>
       </c>
-      <c r="D43" s="83">
+      <c r="D43" s="57">
         <v>593927</v>
       </c>
-      <c r="E43" s="83">
+      <c r="E43" s="57">
         <v>3403073</v>
       </c>
       <c r="F43" s="27">
@@ -4561,15 +4561,15 @@
       <c r="H43" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="82">
+      <c r="I43" s="56">
         <f>MIN(Traning_budget)</f>
         <v>593927</v>
       </c>
-      <c r="J43" s="82">
+      <c r="J43" s="56">
         <f>MIN(Traning_cost)</f>
         <v>814383</v>
       </c>
-      <c r="K43" s="83">
+      <c r="K43" s="57">
         <f>MIN(difference)</f>
         <v>-6978919</v>
       </c>
@@ -4581,10 +4581,10 @@
       <c r="C44" s="10">
         <v>2018</v>
       </c>
-      <c r="D44" s="83">
+      <c r="D44" s="57">
         <v>621816</v>
       </c>
-      <c r="E44" s="83">
+      <c r="E44" s="57">
         <v>4208897</v>
       </c>
       <c r="F44" s="27">
@@ -4594,15 +4594,15 @@
       <c r="H44" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="82">
+      <c r="I44" s="56">
         <f>MAX(Traning_budget)</f>
         <v>4894363</v>
       </c>
-      <c r="J44" s="82">
+      <c r="J44" s="56">
         <f>MAX(Traning_cost)</f>
         <v>8931383</v>
       </c>
-      <c r="K44" s="83">
+      <c r="K44" s="57">
         <f>MAX(difference)</f>
         <v>3692061</v>
       </c>
@@ -4614,10 +4614,10 @@
       <c r="C45" s="10">
         <v>2018</v>
       </c>
-      <c r="D45" s="83">
+      <c r="D45" s="57">
         <v>3845610</v>
       </c>
-      <c r="E45" s="83">
+      <c r="E45" s="57">
         <v>5386159</v>
       </c>
       <c r="F45" s="27">
@@ -4633,10 +4633,10 @@
       <c r="C46" s="10">
         <v>2018</v>
       </c>
-      <c r="D46" s="83">
+      <c r="D46" s="57">
         <v>2881955</v>
       </c>
-      <c r="E46" s="83">
+      <c r="E46" s="57">
         <v>5520399</v>
       </c>
       <c r="F46" s="27">
@@ -4663,10 +4663,10 @@
       <c r="C47" s="10">
         <v>2018</v>
       </c>
-      <c r="D47" s="83">
+      <c r="D47" s="57">
         <v>3643495</v>
       </c>
-      <c r="E47" s="83">
+      <c r="E47" s="57">
         <v>7751040</v>
       </c>
       <c r="F47" s="27">
@@ -4696,10 +4696,10 @@
       <c r="C48" s="10">
         <v>2018</v>
       </c>
-      <c r="D48" s="83">
+      <c r="D48" s="57">
         <v>2215332</v>
       </c>
-      <c r="E48" s="83">
+      <c r="E48" s="57">
         <v>2744211</v>
       </c>
       <c r="F48" s="27">
@@ -4729,10 +4729,10 @@
       <c r="C49" s="10">
         <v>2018</v>
       </c>
-      <c r="D49" s="83">
+      <c r="D49" s="57">
         <v>2726619</v>
       </c>
-      <c r="E49" s="83">
+      <c r="E49" s="57">
         <v>7220132</v>
       </c>
       <c r="F49" s="27">
@@ -4762,10 +4762,10 @@
       <c r="C50" s="10">
         <v>2018</v>
       </c>
-      <c r="D50" s="83">
+      <c r="D50" s="57">
         <v>1436801</v>
       </c>
-      <c r="E50" s="83">
+      <c r="E50" s="57">
         <v>4847562</v>
       </c>
       <c r="F50" s="27">
@@ -4795,10 +4795,10 @@
       <c r="C51" s="10">
         <v>2019</v>
       </c>
-      <c r="D51" s="83">
+      <c r="D51" s="57">
         <v>1140732</v>
       </c>
-      <c r="E51" s="83">
+      <c r="E51" s="57">
         <v>1890874</v>
       </c>
       <c r="F51" s="27">
@@ -4828,10 +4828,10 @@
       <c r="C52" s="10">
         <v>2019</v>
       </c>
-      <c r="D52" s="83">
+      <c r="D52" s="57">
         <v>2936066</v>
       </c>
-      <c r="E52" s="83">
+      <c r="E52" s="57">
         <v>7396595</v>
       </c>
       <c r="F52" s="27">
@@ -4846,10 +4846,10 @@
       <c r="C53" s="10">
         <v>2019</v>
       </c>
-      <c r="D53" s="83">
+      <c r="D53" s="57">
         <v>1573555</v>
       </c>
-      <c r="E53" s="83">
+      <c r="E53" s="57">
         <v>3789052</v>
       </c>
       <c r="F53" s="27">
@@ -4865,10 +4865,10 @@
       <c r="C54" s="10">
         <v>2019</v>
       </c>
-      <c r="D54" s="83">
+      <c r="D54" s="57">
         <v>1356199</v>
       </c>
-      <c r="E54" s="83">
+      <c r="E54" s="57">
         <v>7318681</v>
       </c>
       <c r="F54" s="27">
@@ -4889,10 +4889,10 @@
       <c r="C55" s="10">
         <v>2019</v>
       </c>
-      <c r="D55" s="83">
+      <c r="D55" s="57">
         <v>4117195</v>
       </c>
-      <c r="E55" s="83">
+      <c r="E55" s="57">
         <v>6354354</v>
       </c>
       <c r="F55" s="27">
@@ -4919,10 +4919,10 @@
       <c r="C56" s="10">
         <v>2019</v>
       </c>
-      <c r="D56" s="83">
+      <c r="D56" s="57">
         <v>1133744</v>
       </c>
-      <c r="E56" s="83">
+      <c r="E56" s="57">
         <v>5811424</v>
       </c>
       <c r="F56" s="27">
@@ -4952,10 +4952,10 @@
       <c r="C57" s="10">
         <v>2019</v>
       </c>
-      <c r="D57" s="83">
+      <c r="D57" s="57">
         <v>4694600</v>
       </c>
-      <c r="E57" s="83">
+      <c r="E57" s="57">
         <v>4821344</v>
       </c>
       <c r="F57" s="27">
@@ -4985,10 +4985,10 @@
       <c r="C58" s="10">
         <v>2019</v>
       </c>
-      <c r="D58" s="83">
+      <c r="D58" s="57">
         <v>4894363</v>
       </c>
-      <c r="E58" s="83">
+      <c r="E58" s="57">
         <v>6570552</v>
       </c>
       <c r="F58" s="27">
@@ -5018,10 +5018,10 @@
       <c r="C59" s="10">
         <v>2019</v>
       </c>
-      <c r="D59" s="83">
+      <c r="D59" s="57">
         <v>2539324</v>
       </c>
-      <c r="E59" s="83">
+      <c r="E59" s="57">
         <v>8154247</v>
       </c>
       <c r="F59" s="27">
@@ -5036,10 +5036,10 @@
       <c r="C60" s="10">
         <v>2019</v>
       </c>
-      <c r="D60" s="83">
+      <c r="D60" s="57">
         <v>4861863</v>
       </c>
-      <c r="E60" s="83">
+      <c r="E60" s="57">
         <v>6644932</v>
       </c>
       <c r="F60" s="27">
@@ -5066,10 +5066,10 @@
       <c r="C61" s="10">
         <v>2020</v>
       </c>
-      <c r="D61" s="83">
+      <c r="D61" s="57">
         <v>1401063</v>
       </c>
-      <c r="E61" s="83">
+      <c r="E61" s="57">
         <v>6974780</v>
       </c>
       <c r="F61" s="27">
@@ -5099,10 +5099,10 @@
       <c r="C62" s="10">
         <v>2020</v>
       </c>
-      <c r="D62" s="83">
+      <c r="D62" s="57">
         <v>3254243</v>
       </c>
-      <c r="E62" s="83">
+      <c r="E62" s="57">
         <v>5093808</v>
       </c>
       <c r="F62" s="27">
@@ -5132,10 +5132,10 @@
       <c r="C63" s="10">
         <v>2020</v>
       </c>
-      <c r="D63" s="83">
+      <c r="D63" s="57">
         <v>3549051</v>
       </c>
-      <c r="E63" s="83">
+      <c r="E63" s="57">
         <v>6067117</v>
       </c>
       <c r="F63" s="27">
@@ -5165,10 +5165,10 @@
       <c r="C64" s="10">
         <v>2020</v>
       </c>
-      <c r="D64" s="83">
+      <c r="D64" s="57">
         <v>4093026</v>
       </c>
-      <c r="E64" s="83">
+      <c r="E64" s="57">
         <v>5392251</v>
       </c>
       <c r="F64" s="27">
@@ -5198,10 +5198,10 @@
       <c r="C65" s="10">
         <v>2020</v>
       </c>
-      <c r="D65" s="83">
+      <c r="D65" s="57">
         <v>916667</v>
       </c>
-      <c r="E65" s="83">
+      <c r="E65" s="57">
         <v>4108170</v>
       </c>
       <c r="F65" s="27">
@@ -5231,10 +5231,10 @@
       <c r="C66" s="10">
         <v>2020</v>
       </c>
-      <c r="D66" s="83">
+      <c r="D66" s="57">
         <v>2356012</v>
       </c>
-      <c r="E66" s="83">
+      <c r="E66" s="57">
         <v>6180347</v>
       </c>
       <c r="F66" s="27">
@@ -5249,10 +5249,10 @@
       <c r="C67" s="10">
         <v>2020</v>
       </c>
-      <c r="D67" s="83">
+      <c r="D67" s="57">
         <v>2546225</v>
       </c>
-      <c r="E67" s="83">
+      <c r="E67" s="57">
         <v>4477686</v>
       </c>
       <c r="F67" s="27">
@@ -5276,10 +5276,10 @@
       <c r="C68" s="10">
         <v>2020</v>
       </c>
-      <c r="D68" s="83">
+      <c r="D68" s="57">
         <v>1177934</v>
       </c>
-      <c r="E68" s="83">
+      <c r="E68" s="57">
         <v>5408430</v>
       </c>
       <c r="F68" s="27">
@@ -5289,9 +5289,13 @@
       <c r="H68" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I68" s="36" t="e">
-        <f>SUMIFS(Traning_budget,Departmental_session, $I$67, Departmental_session, H68)</f>
-        <v>#VALUE!</v>
+      <c r="I68" s="36">
+        <f>SUMIFS(D$40:D$74, B$40:B$74, H68, D$40:D$74, "&lt;1500000")</f>
+        <v>1356199</v>
+      </c>
+      <c r="J68">
+        <f>SUMIFS(E$40:E$74,B$40:B$74,H68, E$40:E$74, "&gt;1500000")</f>
+        <v>37375332</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="14.25" customHeight="1">
@@ -5301,10 +5305,10 @@
       <c r="C69" s="10">
         <v>2020</v>
       </c>
-      <c r="D69" s="83">
+      <c r="D69" s="57">
         <v>4506444</v>
       </c>
-      <c r="E69" s="83">
+      <c r="E69" s="57">
         <v>814383</v>
       </c>
       <c r="F69" s="27">
@@ -5314,7 +5318,14 @@
       <c r="H69" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I69" s="36"/>
+      <c r="I69" s="36">
+        <f t="shared" ref="I69:I72" si="1">SUMIFS(D$40:D$74, B$40:B$74, H69, D$40:D$74, "&lt;1500000")</f>
+        <v>1323022</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J72" si="2">SUMIFS(E$40:E$74,B$40:B$74,H69, E$40:E$74, "&gt;1500000")</f>
+        <v>42943497</v>
+      </c>
     </row>
     <row r="70" spans="2:11" ht="14.25" customHeight="1">
       <c r="B70" s="10" t="s">
@@ -5323,10 +5334,10 @@
       <c r="C70" s="10">
         <v>2020</v>
       </c>
-      <c r="D70" s="83">
+      <c r="D70" s="57">
         <v>3222098</v>
       </c>
-      <c r="E70" s="83">
+      <c r="E70" s="57">
         <v>1551701</v>
       </c>
       <c r="F70" s="27">
@@ -5336,7 +5347,14 @@
       <c r="H70" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="36"/>
+      <c r="I70" s="36">
+        <f t="shared" si="1"/>
+        <v>2541915</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>34131016</v>
+      </c>
     </row>
     <row r="71" spans="2:11" ht="14.25" customHeight="1">
       <c r="B71" s="10" t="s">
@@ -5345,10 +5363,10 @@
       <c r="C71" s="10">
         <v>2020</v>
       </c>
-      <c r="D71" s="83">
+      <c r="D71" s="57">
         <v>2816718</v>
       </c>
-      <c r="E71" s="83">
+      <c r="E71" s="57">
         <v>7767171</v>
       </c>
       <c r="F71" s="27">
@@ -5358,7 +5376,14 @@
       <c r="H71" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I71" s="36"/>
+      <c r="I71" s="36">
+        <f t="shared" si="1"/>
+        <v>4609725</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>54825340</v>
+      </c>
     </row>
     <row r="72" spans="2:11" ht="14.25" customHeight="1">
       <c r="B72" s="10" t="s">
@@ -5367,10 +5392,10 @@
       <c r="C72" s="10">
         <v>2020</v>
       </c>
-      <c r="D72" s="83">
+      <c r="D72" s="57">
         <v>3303287</v>
       </c>
-      <c r="E72" s="83">
+      <c r="E72" s="57">
         <v>7960122</v>
       </c>
       <c r="F72" s="27">
@@ -5380,7 +5405,14 @@
       <c r="H72" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I72" s="36"/>
+      <c r="I72" s="36">
+        <f t="shared" si="1"/>
+        <v>3278043</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>19532036</v>
+      </c>
     </row>
     <row r="73" spans="2:11" ht="14.25" customHeight="1">
       <c r="B73" s="10" t="s">
@@ -5389,10 +5421,10 @@
       <c r="C73" s="10">
         <v>2020</v>
       </c>
-      <c r="D73" s="83">
+      <c r="D73" s="57">
         <v>598828</v>
       </c>
-      <c r="E73" s="83">
+      <c r="E73" s="57">
         <v>2753543</v>
       </c>
       <c r="F73" s="27">
@@ -5407,10 +5439,10 @@
       <c r="C74" s="10">
         <v>2020</v>
       </c>
-      <c r="D74" s="83">
+      <c r="D74" s="57">
         <v>1323022</v>
       </c>
-      <c r="E74" s="83">
+      <c r="E74" s="57">
         <v>5861991</v>
       </c>
       <c r="F74" s="27">
@@ -6366,7 +6398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S999"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1:S1"/>
     </sheetView>
@@ -6385,12 +6417,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="24.75" customHeight="1">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
       <c r="H1" s="8" t="s">
         <v>49</v>
       </c>
@@ -6398,22 +6430,22 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="O1" s="85" t="s">
+      <c r="O1" s="83" t="s">
         <v>442</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="87"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="85"/>
     </row>
     <row r="2" spans="2:19" ht="15" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="61"/>
-      <c r="H2" s="77" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="69"/>
+      <c r="H2" s="51" t="s">
         <v>51</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -6428,27 +6460,27 @@
       <c r="L2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="P2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="R2" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B3" s="65"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="69"/>
       <c r="H3" s="8" t="s">
         <v>56</v>
       </c>
@@ -6464,27 +6496,27 @@
       <c r="L3" s="8">
         <v>3727347</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="79" t="s">
+      <c r="Q3" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="79" t="s">
+      <c r="R3" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="79">
+      <c r="S3" s="53">
         <v>3727347</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B4" s="65"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="69"/>
       <c r="H4" s="8" t="s">
         <v>60</v>
       </c>
@@ -6500,27 +6532,27 @@
       <c r="L4" s="8">
         <v>4248436</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="79">
+      <c r="S4" s="53">
         <v>4248436</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B5" s="65"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="69"/>
       <c r="H5" s="8" t="s">
         <v>64</v>
       </c>
@@ -6536,27 +6568,27 @@
       <c r="L5" s="8">
         <v>5482177</v>
       </c>
-      <c r="O5" s="79" t="s">
+      <c r="O5" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="79" t="s">
+      <c r="P5" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="79" t="s">
+      <c r="R5" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="79">
+      <c r="S5" s="53">
         <v>5482177</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B6" s="65"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="69"/>
       <c r="H6" s="8" t="s">
         <v>68</v>
       </c>
@@ -6572,27 +6604,27 @@
       <c r="L6" s="8">
         <v>5527809</v>
       </c>
-      <c r="O6" s="79" t="s">
+      <c r="O6" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="79" t="s">
+      <c r="P6" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="79" t="s">
+      <c r="Q6" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="79" t="s">
+      <c r="R6" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="79">
+      <c r="S6" s="53">
         <v>5527809</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B7" s="65"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="69"/>
       <c r="H7" s="8" t="s">
         <v>72</v>
       </c>
@@ -6608,27 +6640,27 @@
       <c r="L7" s="8">
         <v>6537314</v>
       </c>
-      <c r="O7" s="79" t="s">
+      <c r="O7" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="79" t="s">
+      <c r="P7" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="79" t="s">
+      <c r="Q7" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="79" t="s">
+      <c r="R7" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="79">
+      <c r="S7" s="53">
         <v>6537314</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="69"/>
       <c r="H8" s="8" t="s">
         <v>75</v>
       </c>
@@ -6644,27 +6676,27 @@
       <c r="L8" s="8">
         <v>2277961</v>
       </c>
-      <c r="O8" s="79" t="s">
+      <c r="O8" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="79" t="s">
+      <c r="P8" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="79" t="s">
+      <c r="Q8" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R8" s="79" t="s">
+      <c r="R8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="79">
+      <c r="S8" s="53">
         <v>2277961</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B9" s="65"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="61"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="69"/>
       <c r="H9" s="8" t="s">
         <v>79</v>
       </c>
@@ -6680,27 +6712,27 @@
       <c r="L9" s="8">
         <v>5741815</v>
       </c>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="79" t="s">
+      <c r="Q9" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="R9" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="S9" s="79">
+      <c r="S9" s="53">
         <v>5741815</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B10" s="65"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="61"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="69"/>
       <c r="H10" s="8" t="s">
         <v>83</v>
       </c>
@@ -6716,27 +6748,27 @@
       <c r="L10" s="8">
         <v>5860183</v>
       </c>
-      <c r="O10" s="79" t="s">
+      <c r="O10" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="79" t="s">
+      <c r="P10" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="79" t="s">
+      <c r="Q10" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="79" t="s">
+      <c r="R10" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="S10" s="79">
+      <c r="S10" s="53">
         <v>5860183</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B11" s="65"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="61"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="69"/>
       <c r="H11" s="8" t="s">
         <v>87</v>
       </c>
@@ -6752,27 +6784,27 @@
       <c r="L11" s="8">
         <v>3866269</v>
       </c>
-      <c r="O11" s="79" t="s">
+      <c r="O11" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="79" t="s">
+      <c r="P11" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="79" t="s">
+      <c r="R11" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="S11" s="79">
+      <c r="S11" s="53">
         <v>3866269</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B12" s="65"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="61"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="69"/>
       <c r="H12" s="8" t="s">
         <v>91</v>
       </c>
@@ -6788,27 +6820,27 @@
       <c r="L12" s="8">
         <v>5663362</v>
       </c>
-      <c r="O12" s="79" t="s">
+      <c r="O12" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="79" t="s">
+      <c r="P12" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="Q12" s="79" t="s">
+      <c r="Q12" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="R12" s="79" t="s">
+      <c r="R12" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="S12" s="79">
+      <c r="S12" s="53">
         <v>5663362</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B13" s="65"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="61"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="69"/>
       <c r="H13" s="8" t="s">
         <v>95</v>
       </c>
@@ -6824,27 +6856,27 @@
       <c r="L13" s="8">
         <v>2880383</v>
       </c>
-      <c r="O13" s="79" t="s">
+      <c r="O13" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="79" t="s">
+      <c r="P13" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="Q13" s="79" t="s">
+      <c r="Q13" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="R13" s="79" t="s">
+      <c r="R13" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="S13" s="79">
+      <c r="S13" s="53">
         <v>2880383</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B14" s="65"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="61"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="69"/>
       <c r="H14" s="8" t="s">
         <v>99</v>
       </c>
@@ -6860,27 +6892,27 @@
       <c r="L14" s="8">
         <v>4235595</v>
       </c>
-      <c r="O14" s="79" t="s">
+      <c r="O14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="79" t="s">
+      <c r="P14" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="Q14" s="79" t="s">
+      <c r="Q14" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="R14" s="79" t="s">
+      <c r="R14" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="S14" s="79">
+      <c r="S14" s="53">
         <v>4235595</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B15" s="65"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="61"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="69"/>
       <c r="H15" s="8" t="s">
         <v>103</v>
       </c>
@@ -6896,27 +6928,27 @@
       <c r="L15" s="8">
         <v>3270798</v>
       </c>
-      <c r="O15" s="79" t="s">
+      <c r="O15" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="79" t="s">
+      <c r="P15" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="Q15" s="79" t="s">
+      <c r="Q15" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="R15" s="79" t="s">
+      <c r="R15" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="S15" s="79">
+      <c r="S15" s="53">
         <v>3270798</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B16" s="66"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="67"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="75"/>
       <c r="H16" s="8" t="s">
         <v>107</v>
       </c>
@@ -6932,19 +6964,19 @@
       <c r="L16" s="8">
         <v>4411119</v>
       </c>
-      <c r="O16" s="79" t="s">
+      <c r="O16" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="79" t="s">
+      <c r="P16" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="Q16" s="79" t="s">
+      <c r="Q16" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="R16" s="79" t="s">
+      <c r="R16" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="S16" s="79">
+      <c r="S16" s="53">
         <v>4411119</v>
       </c>
     </row>
@@ -6964,19 +6996,19 @@
       <c r="L17" s="8">
         <v>3256962</v>
       </c>
-      <c r="O17" s="79" t="s">
+      <c r="O17" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="79" t="s">
+      <c r="P17" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="Q17" s="79" t="s">
+      <c r="Q17" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="R17" s="79" t="s">
+      <c r="R17" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="S17" s="79">
+      <c r="S17" s="53">
         <v>3256962</v>
       </c>
     </row>
@@ -6996,19 +7028,19 @@
       <c r="L18" s="8">
         <v>5408756</v>
       </c>
-      <c r="O18" s="79" t="s">
+      <c r="O18" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="P18" s="79" t="s">
+      <c r="P18" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="79" t="s">
+      <c r="Q18" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="R18" s="79" t="s">
+      <c r="R18" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="79">
+      <c r="S18" s="53">
         <v>5408756</v>
       </c>
     </row>
@@ -7028,19 +7060,19 @@
       <c r="L19" s="8">
         <v>5828163</v>
       </c>
-      <c r="O19" s="79" t="s">
+      <c r="O19" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="79" t="s">
+      <c r="P19" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="Q19" s="79" t="s">
+      <c r="Q19" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="R19" s="79" t="s">
+      <c r="R19" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="S19" s="79">
+      <c r="S19" s="53">
         <v>5828163</v>
       </c>
     </row>
@@ -7060,19 +7092,19 @@
       <c r="L20" s="8">
         <v>8252366</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="P20" s="79" t="s">
+      <c r="P20" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="Q20" s="79" t="s">
+      <c r="Q20" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="R20" s="79" t="s">
+      <c r="R20" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="79">
+      <c r="S20" s="53">
         <v>8252366</v>
       </c>
     </row>
@@ -7092,19 +7124,19 @@
       <c r="L21" s="8">
         <v>10076892</v>
       </c>
-      <c r="O21" s="79" t="s">
+      <c r="O21" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="79" t="s">
+      <c r="P21" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="Q21" s="79" t="s">
+      <c r="Q21" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="R21" s="79" t="s">
+      <c r="R21" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="S21" s="79">
+      <c r="S21" s="53">
         <v>10076892</v>
       </c>
     </row>
@@ -7124,19 +7156,19 @@
       <c r="L22" s="8">
         <v>7831319</v>
       </c>
-      <c r="O22" s="79" t="s">
+      <c r="O22" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="79" t="s">
+      <c r="P22" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="Q22" s="79" t="s">
+      <c r="Q22" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="R22" s="79" t="s">
+      <c r="R22" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="S22" s="79">
+      <c r="S22" s="53">
         <v>7831319</v>
       </c>
     </row>
@@ -7156,19 +7188,19 @@
       <c r="L23" s="8">
         <v>4440050</v>
       </c>
-      <c r="O23" s="79" t="s">
+      <c r="O23" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="79" t="s">
+      <c r="P23" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="Q23" s="79" t="s">
+      <c r="Q23" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="R23" s="79" t="s">
+      <c r="R23" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="S23" s="79">
+      <c r="S23" s="53">
         <v>4440050</v>
       </c>
     </row>
@@ -7188,19 +7220,19 @@
       <c r="L24" s="8">
         <v>4473490</v>
       </c>
-      <c r="O24" s="79" t="s">
+      <c r="O24" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="P24" s="79" t="s">
+      <c r="P24" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="Q24" s="79" t="s">
+      <c r="Q24" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="R24" s="79" t="s">
+      <c r="R24" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="S24" s="79">
+      <c r="S24" s="53">
         <v>4473490</v>
       </c>
     </row>
@@ -7220,19 +7252,19 @@
       <c r="L25" s="8">
         <v>3192893</v>
       </c>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="79" t="s">
+      <c r="P25" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="Q25" s="79" t="s">
+      <c r="Q25" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="79" t="s">
+      <c r="R25" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="S25" s="79">
+      <c r="S25" s="53">
         <v>3192893</v>
       </c>
     </row>
@@ -7252,19 +7284,19 @@
       <c r="L26" s="8">
         <v>15550598</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="O26" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="P26" s="79" t="s">
+      <c r="P26" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="Q26" s="79" t="s">
+      <c r="Q26" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="R26" s="79" t="s">
+      <c r="R26" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="79">
+      <c r="S26" s="53">
         <v>15550598</v>
       </c>
     </row>
@@ -7284,19 +7316,19 @@
       <c r="L27" s="8">
         <v>2523395</v>
       </c>
-      <c r="O27" s="79" t="s">
+      <c r="O27" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="P27" s="79" t="s">
+      <c r="P27" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="Q27" s="79" t="s">
+      <c r="Q27" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="R27" s="79" t="s">
+      <c r="R27" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="S27" s="79">
+      <c r="S27" s="53">
         <v>2523395</v>
       </c>
     </row>
@@ -7316,19 +7348,19 @@
       <c r="L28" s="8">
         <v>5556247</v>
       </c>
-      <c r="O28" s="79" t="s">
+      <c r="O28" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="P28" s="79" t="s">
+      <c r="P28" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="Q28" s="79" t="s">
+      <c r="Q28" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="R28" s="79" t="s">
+      <c r="R28" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="S28" s="79">
+      <c r="S28" s="53">
         <v>5556247</v>
       </c>
     </row>
@@ -7348,19 +7380,19 @@
       <c r="L29" s="8">
         <v>5217716</v>
       </c>
-      <c r="O29" s="79" t="s">
+      <c r="O29" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="P29" s="79" t="s">
+      <c r="P29" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="Q29" s="79" t="s">
+      <c r="Q29" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="R29" s="79" t="s">
+      <c r="R29" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="S29" s="79">
+      <c r="S29" s="53">
         <v>5217716</v>
       </c>
     </row>
@@ -7380,19 +7412,19 @@
       <c r="L30" s="8">
         <v>4671695</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="P30" s="79" t="s">
+      <c r="P30" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="Q30" s="79" t="s">
+      <c r="Q30" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="R30" s="79" t="s">
+      <c r="R30" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="S30" s="79">
+      <c r="S30" s="53">
         <v>4671695</v>
       </c>
     </row>
@@ -7412,19 +7444,19 @@
       <c r="L31" s="8">
         <v>4705589</v>
       </c>
-      <c r="O31" s="79" t="s">
+      <c r="O31" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="P31" s="79" t="s">
+      <c r="P31" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="Q31" s="79" t="s">
+      <c r="Q31" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="R31" s="79" t="s">
+      <c r="R31" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="S31" s="79">
+      <c r="S31" s="53">
         <v>4705589</v>
       </c>
     </row>
@@ -7444,19 +7476,19 @@
       <c r="L32" s="8">
         <v>7840864</v>
       </c>
-      <c r="O32" s="79" t="s">
+      <c r="O32" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="P32" s="79" t="s">
+      <c r="P32" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="Q32" s="79" t="s">
+      <c r="Q32" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="R32" s="79" t="s">
+      <c r="R32" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="S32" s="79">
+      <c r="S32" s="53">
         <v>7840864</v>
       </c>
     </row>
@@ -7476,19 +7508,19 @@
       <c r="L33" s="8">
         <v>4200442</v>
       </c>
-      <c r="O33" s="79" t="s">
+      <c r="O33" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="P33" s="79" t="s">
+      <c r="P33" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="Q33" s="79" t="s">
+      <c r="Q33" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="R33" s="79" t="s">
+      <c r="R33" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="S33" s="79">
+      <c r="S33" s="53">
         <v>4200442</v>
       </c>
     </row>
@@ -7508,19 +7540,19 @@
       <c r="L34" s="8">
         <v>7303924</v>
       </c>
-      <c r="O34" s="79" t="s">
+      <c r="O34" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="P34" s="79" t="s">
+      <c r="P34" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="Q34" s="79" t="s">
+      <c r="Q34" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="R34" s="79" t="s">
+      <c r="R34" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="S34" s="79">
+      <c r="S34" s="53">
         <v>7303924</v>
       </c>
     </row>
@@ -7540,19 +7572,19 @@
       <c r="L35" s="8">
         <v>4998090</v>
       </c>
-      <c r="O35" s="79" t="s">
+      <c r="O35" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="P35" s="79" t="s">
+      <c r="P35" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="Q35" s="79" t="s">
+      <c r="Q35" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="R35" s="79" t="s">
+      <c r="R35" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="S35" s="79">
+      <c r="S35" s="53">
         <v>4998090</v>
       </c>
     </row>
@@ -7572,19 +7604,19 @@
       <c r="L36" s="8">
         <v>3066834</v>
       </c>
-      <c r="O36" s="79" t="s">
+      <c r="O36" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="P36" s="79" t="s">
+      <c r="P36" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="Q36" s="79" t="s">
+      <c r="Q36" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="R36" s="79" t="s">
+      <c r="R36" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="S36" s="79">
+      <c r="S36" s="53">
         <v>3066834</v>
       </c>
     </row>
@@ -7604,19 +7636,19 @@
       <c r="L37" s="8">
         <v>3294137</v>
       </c>
-      <c r="O37" s="79" t="s">
+      <c r="O37" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="P37" s="79" t="s">
+      <c r="P37" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="Q37" s="79" t="s">
+      <c r="Q37" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="R37" s="79" t="s">
+      <c r="R37" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="S37" s="79">
+      <c r="S37" s="53">
         <v>3294137</v>
       </c>
     </row>
@@ -7636,19 +7668,19 @@
       <c r="L38" s="8">
         <v>4515427</v>
       </c>
-      <c r="O38" s="79" t="s">
+      <c r="O38" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="P38" s="79" t="s">
+      <c r="P38" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="Q38" s="79" t="s">
+      <c r="Q38" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="R38" s="79" t="s">
+      <c r="R38" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="S38" s="79">
+      <c r="S38" s="53">
         <v>4515427</v>
       </c>
     </row>
@@ -7668,19 +7700,19 @@
       <c r="L39" s="8">
         <v>3564126</v>
       </c>
-      <c r="O39" s="79" t="s">
+      <c r="O39" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="P39" s="79" t="s">
+      <c r="P39" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="Q39" s="79" t="s">
+      <c r="Q39" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="R39" s="79" t="s">
+      <c r="R39" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="S39" s="79">
+      <c r="S39" s="53">
         <v>3564126</v>
       </c>
     </row>
@@ -8672,15 +8704,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:17" ht="14.25" customHeight="1"/>
@@ -8737,63 +8769,63 @@
         <v>1</v>
       </c>
       <c r="C5" s="40">
-        <f>$B5*C$4</f>
+        <f t="shared" ref="C5:Q5" si="0">$B5*C$4</f>
         <v>1</v>
       </c>
       <c r="D5" s="40">
-        <f>$B5*D$4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5" s="40">
-        <f>$B5*E$4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F5" s="40">
-        <f>$B5*F$4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G5" s="40">
-        <f>$B5*G$4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H5" s="40">
-        <f>$B5*H$4</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I5" s="40">
-        <f>$B5*I$4</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J5" s="40">
-        <f>$B5*J$4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K5" s="40">
-        <f>$B5*K$4</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L5" s="40">
-        <f>$B5*L$4</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M5" s="40">
-        <f>$B5*M$4</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N5" s="40">
-        <f>$B5*N$4</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O5" s="40">
-        <f>$B5*O$4</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="P5" s="40">
-        <f>$B5*P$4</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q5" s="40">
-        <f>$B5*Q$4</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -8802,63 +8834,63 @@
         <v>2</v>
       </c>
       <c r="C6" s="40">
-        <f t="shared" ref="C6:Q19" si="0">$B6*C$4</f>
+        <f t="shared" ref="C6:Q19" si="1">$B6*C$4</f>
         <v>2</v>
       </c>
       <c r="D6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="N6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="O6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="P6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="Q6" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -8867,63 +8899,63 @@
         <v>3</v>
       </c>
       <c r="C7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="J7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="L7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="N7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="O7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="P7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -8932,63 +8964,63 @@
         <v>4</v>
       </c>
       <c r="C8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="G8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="J8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="K8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="L8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="N8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="O8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="P8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="Q8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -8997,63 +9029,63 @@
         <v>5</v>
       </c>
       <c r="C9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="H9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="J9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="L9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="N9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="O9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="P9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="Q9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -9062,63 +9094,63 @@
         <v>6</v>
       </c>
       <c r="C10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="G10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="I10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="J10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="K10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="L10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="M10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="N10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="O10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="P10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="Q10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -9127,63 +9159,63 @@
         <v>7</v>
       </c>
       <c r="C11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="F11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="G11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="H11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="I11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="J11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="K11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="L11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="M11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="N11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="O11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="P11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="Q11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
@@ -9192,63 +9224,63 @@
         <v>8</v>
       </c>
       <c r="C12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="G12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="I12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="J12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="K12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="L12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="M12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="N12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="O12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="P12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="Q12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -9257,63 +9289,63 @@
         <v>9</v>
       </c>
       <c r="C13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="F13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="G13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="I13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="J13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="K13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="L13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="M13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="N13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="O13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="P13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="Q13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
     </row>
@@ -9322,63 +9354,63 @@
         <v>10</v>
       </c>
       <c r="C14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="J14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="L14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="M14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="N14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="O14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="P14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="Q14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -9387,63 +9419,63 @@
         <v>11</v>
       </c>
       <c r="C15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="E15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="F15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="G15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="H15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="I15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="J15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="K15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="L15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="M15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="N15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="O15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
       <c r="P15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="Q15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
@@ -9452,63 +9484,63 @@
         <v>12</v>
       </c>
       <c r="C16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="E16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="F16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="G16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="I16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="J16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="K16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="L16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="M16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="N16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="O16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="P16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="Q16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
@@ -9517,63 +9549,63 @@
         <v>13</v>
       </c>
       <c r="C17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="F17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="G17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="H17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="I17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="J17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="K17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="L17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="M17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
       <c r="N17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="O17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="P17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="Q17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
@@ -9582,63 +9614,63 @@
         <v>14</v>
       </c>
       <c r="C18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="F18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="G18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="I18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="J18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="K18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="L18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="M18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="N18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="O18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="P18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="Q18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
@@ -9647,63 +9679,63 @@
         <v>15</v>
       </c>
       <c r="C19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="F19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="H19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="I19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="J19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="L19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="M19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="N19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="O19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="P19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="Q19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
     </row>
@@ -10704,7 +10736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
@@ -15445,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15455,12 +15487,13 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15471,34 +15504,34 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B4" s="65"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B5" s="65"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B6" s="66"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1">
       <c r="B7" s="43"/>
@@ -15633,15 +15666,15 @@
         <v>23353</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>VLOOKUP(B17, utiva_table,6,FALSE)</f>
+        <f t="shared" ref="C17:C22" si="0">VLOOKUP(B17, utiva_table,6,FALSE)</f>
         <v>Direct</v>
       </c>
       <c r="D17" s="48">
-        <f>VLOOKUP(B17, utiva_table,9,FALSE)</f>
+        <f t="shared" ref="D17:D22" si="1">VLOOKUP(B17, utiva_table,9,FALSE)</f>
         <v>168</v>
       </c>
       <c r="E17" s="10">
-        <f>VLOOKUP(B17,utiva_table, 11,FALSE)</f>
+        <f t="shared" ref="E17:E22" si="2">VLOOKUP(B17,utiva_table, 11,FALSE)</f>
         <v>2436</v>
       </c>
       <c r="I17" s="14">
@@ -15665,15 +15698,15 @@
         <v>23289</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>VLOOKUP(B18, utiva_table,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Retail</v>
       </c>
       <c r="D18" s="48">
-        <f>VLOOKUP(B18, utiva_table,9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
       <c r="E18" s="10">
-        <f>VLOOKUP(B18,utiva_table, 11,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2407</v>
       </c>
       <c r="I18" s="14">
@@ -15697,15 +15730,15 @@
         <v>23378</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>VLOOKUP(B19, utiva_table,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Online</v>
       </c>
       <c r="D19" s="48">
-        <f>VLOOKUP(B19, utiva_table,9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>157</v>
       </c>
       <c r="E19" s="10">
-        <f>VLOOKUP(B19,utiva_table, 11,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2276.5</v>
       </c>
       <c r="I19" s="14">
@@ -15729,15 +15762,15 @@
         <v>23283</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f>VLOOKUP(B20, utiva_table,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Online</v>
       </c>
       <c r="D20" s="48">
-        <f>VLOOKUP(B20, utiva_table,9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="E20" s="10">
-        <f>VLOOKUP(B20,utiva_table, 11,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2059</v>
       </c>
       <c r="I20" s="14">
@@ -15761,15 +15794,15 @@
         <v>23324</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>VLOOKUP(B21, utiva_table,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Retail</v>
       </c>
       <c r="D21" s="48">
-        <f>VLOOKUP(B21, utiva_table,9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="E21" s="10">
-        <f>VLOOKUP(B21,utiva_table, 11,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1928.07</v>
       </c>
       <c r="I21" s="14">
@@ -15793,15 +15826,15 @@
         <v>23303</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f>VLOOKUP(B22, utiva_table,6,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Retail</v>
       </c>
       <c r="D22" s="48">
-        <f>VLOOKUP(B22, utiva_table,9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
       <c r="E22" s="10">
-        <f>VLOOKUP(B22,utiva_table, 11,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2552</v>
       </c>
       <c r="I22" s="14">
@@ -15860,15 +15893,15 @@
         <v>23265</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f>VLOOKUP(B26,utiva_table,3,FALSE)</f>
+        <f t="shared" ref="C26:C32" si="3">VLOOKUP(B26,utiva_table,3,FALSE)</f>
         <v>South Africa</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f>VLOOKUP(B26, utiva_table, 2,FALSE)</f>
+        <f t="shared" ref="D26:D32" si="4">VLOOKUP(B26, utiva_table, 2,FALSE)</f>
         <v>Uriel Benton</v>
       </c>
       <c r="E26" s="10">
-        <f>VLOOKUP(B26, utiva_table,11,FALSE)</f>
+        <f t="shared" ref="E26:E32" si="5">VLOOKUP(B26, utiva_table,11,FALSE)</f>
         <v>139.86000000000001</v>
       </c>
       <c r="I26" s="14">
@@ -15892,15 +15925,15 @@
         <v>23315</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f>VLOOKUP(B27,utiva_table,3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Burkina Faso</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f>VLOOKUP(B27, utiva_table, 2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Anika Tillman</v>
       </c>
       <c r="E27" s="10">
-        <f>VLOOKUP(B27, utiva_table,11,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>490.5</v>
       </c>
       <c r="I27" s="14">
@@ -15923,64 +15956,64 @@
       <c r="B28" s="45">
         <v>30000</v>
       </c>
-      <c r="C28" s="10" t="e">
-        <f>VLOOKUP(B28,utiva_table,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="10" t="e">
-        <f>VLOOKUP(B28, utiva_table, 2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="10" t="e">
-        <f>VLOOKUP(B28, utiva_table,11,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C28" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B28,utiva_table, 3,FALSE), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B28, utiva_table, 2,FALSE), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B28, utiva_table,11,FALSE), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
       </c>
       <c r="I28" s="14">
         <v>30000</v>
       </c>
-      <c r="J28" s="10" t="e">
-        <f>INDEX(DataSet!C3:C111, MATCH('VlookUp_Index&amp;Match'!I28, DataSet!A3:A111,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K28" s="10" t="e">
-        <f>INDEX(DataSet!B3:B111, MATCH('VlookUp_Index&amp;Match'!I28, DataSet!A3:A111,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="10" t="e">
-        <f>INDEX(DataSet!K3:K111, MATCH('VlookUp_Index&amp;Match'!I28, DataSet!A3:A111,0))</f>
-        <v>#N/A</v>
+      <c r="J28" s="10" t="str">
+        <f>IFERROR(INDEX(DataSet!C3:C111, MATCH('VlookUp_Index&amp;Match'!I28, DataSet!A3:A111,0)), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="K28" s="10" t="str">
+        <f>IFERROR(INDEX(DataSet!B3:B111, MATCH('VlookUp_Index&amp;Match'!I28, DataSet!A3:A111,0)), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="L28" s="10" t="str">
+        <f>IFERROR(INDEX(DataSet!K3:K111, MATCH('VlookUp_Index&amp;Match'!I28, DataSet!A3:A111,0)), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="14.25" customHeight="1">
       <c r="B29" s="45">
         <v>40000</v>
       </c>
-      <c r="C29" s="10" t="e">
-        <f>VLOOKUP(B29,utiva_table,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="10" t="e">
-        <f>VLOOKUP(B29, utiva_table, 2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="10" t="e">
-        <f>VLOOKUP(B29, utiva_table,11,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C29" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B29,utiva_table, 3,FALSE), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B29, utiva_table, 2,FALSE), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B29, utiva_table,11,FALSE), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
       </c>
       <c r="I29" s="14">
         <v>40000</v>
       </c>
-      <c r="J29" s="10" t="e">
-        <f>INDEX(DataSet!C4:C112, MATCH('VlookUp_Index&amp;Match'!I29, DataSet!A4:A112,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K29" s="10" t="e">
-        <f>INDEX(DataSet!B4:B112, MATCH('VlookUp_Index&amp;Match'!I29, DataSet!A4:A112,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="10" t="e">
-        <f>INDEX(DataSet!K4:K112, MATCH('VlookUp_Index&amp;Match'!I29, DataSet!A4:A112,0))</f>
-        <v>#N/A</v>
+      <c r="J29" s="10" t="str">
+        <f>IFERROR(INDEX(DataSet!C4:C112, MATCH('VlookUp_Index&amp;Match'!I29, DataSet!A4:A112,0)), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="K29" s="10" t="str">
+        <f>IFERROR(INDEX(DataSet!B4:B112, MATCH('VlookUp_Index&amp;Match'!I29, DataSet!A4:A112,0)), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="L29" s="10" t="str">
+        <f>IFERROR(INDEX(DataSet!K4:K112, MATCH('VlookUp_Index&amp;Match'!I29, DataSet!A4:A112,0)), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="14.25" customHeight="1">
@@ -15988,30 +16021,30 @@
         <v>23367</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f>VLOOKUP(B30,utiva_table,3,FALSE)</f>
+        <f>IFERROR(VLOOKUP(B30,utiva_table, 3,FALSE), "NOT FOUND")</f>
         <v>Saudi Arabia</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f>VLOOKUP(B30, utiva_table, 2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(B30, utiva_table, 2,FALSE), "NOT FOUND")</f>
         <v>Roary Dixon</v>
       </c>
       <c r="E30" s="10">
-        <f>VLOOKUP(B30, utiva_table,11,FALSE)</f>
+        <f>IFERROR(VLOOKUP(B30, utiva_table,11,FALSE), "NOT FOUND")</f>
         <v>45</v>
       </c>
       <c r="I30" s="14">
         <v>23367</v>
       </c>
       <c r="J30" s="10" t="str">
-        <f>INDEX(DataSet!C5:C113, MATCH('VlookUp_Index&amp;Match'!I30, DataSet!A5:A113,0))</f>
+        <f>IFERROR(INDEX(DataSet!C5:C113, MATCH('VlookUp_Index&amp;Match'!I30, DataSet!A5:A113,0)), "NOT FOUND")</f>
         <v>Saudi Arabia</v>
       </c>
       <c r="K30" s="10" t="str">
-        <f>INDEX(DataSet!B5:B113, MATCH('VlookUp_Index&amp;Match'!I30, DataSet!A5:A113,0))</f>
+        <f>IFERROR(INDEX(DataSet!B5:B113, MATCH('VlookUp_Index&amp;Match'!I30, DataSet!A5:A113,0)), "NOT FOUND")</f>
         <v>Roary Dixon</v>
       </c>
       <c r="L30" s="10">
-        <f>INDEX(DataSet!K5:K113, MATCH('VlookUp_Index&amp;Match'!I30, DataSet!A5:A113,0))</f>
+        <f>IFERROR(INDEX(DataSet!K5:K113, MATCH('VlookUp_Index&amp;Match'!I30, DataSet!A5:A113,0)), "NOT FOUND")</f>
         <v>45</v>
       </c>
     </row>
@@ -16020,30 +16053,30 @@
         <v>23326</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f>VLOOKUP(B31,utiva_table,3,FALSE)</f>
+        <f>IFERROR(VLOOKUP(B31,utiva_table, 3,FALSE), "NOT FOUND")</f>
         <v>Slovenia</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f>VLOOKUP(B31, utiva_table, 2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(B31, utiva_table, 2,FALSE), "NOT FOUND")</f>
         <v>Katelyn Joseph</v>
       </c>
       <c r="E31" s="10">
-        <f>VLOOKUP(B31, utiva_table,11,FALSE)</f>
+        <f>IFERROR(VLOOKUP(B31, utiva_table,11,FALSE), "NOT FOUND")</f>
         <v>567</v>
       </c>
       <c r="I31" s="14">
         <v>23326</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f>INDEX(DataSet!C6:C114, MATCH('VlookUp_Index&amp;Match'!I31, DataSet!A6:A114,0))</f>
+        <f>IFERROR(INDEX(DataSet!C6:C114, MATCH('VlookUp_Index&amp;Match'!I31, DataSet!A6:A114,0)), "NOT FOUND")</f>
         <v>Slovenia</v>
       </c>
       <c r="K31" s="10" t="str">
-        <f>INDEX(DataSet!B6:B114, MATCH('VlookUp_Index&amp;Match'!I31, DataSet!A6:A114,0))</f>
+        <f>IFERROR(INDEX(DataSet!B6:B114, MATCH('VlookUp_Index&amp;Match'!I31, DataSet!A6:A114,0)), "NOT FOUND")</f>
         <v>Katelyn Joseph</v>
       </c>
       <c r="L31" s="10">
-        <f>INDEX(DataSet!K6:K114, MATCH('VlookUp_Index&amp;Match'!I31, DataSet!A6:A114,0))</f>
+        <f>IFERROR(INDEX(DataSet!K6:K114, MATCH('VlookUp_Index&amp;Match'!I31, DataSet!A6:A114,0)), "NOT FOUND")</f>
         <v>567</v>
       </c>
     </row>
@@ -16051,32 +16084,32 @@
       <c r="B32" s="45">
         <v>35000</v>
       </c>
-      <c r="C32" s="10" t="e">
-        <f>VLOOKUP(B32,utiva_table,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" s="10" t="e">
-        <f>VLOOKUP(B32, utiva_table, 2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="10" t="e">
-        <f>VLOOKUP(B32, utiva_table,11,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C32" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B32,utiva_table, 3,FALSE), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B32, utiva_table, 2,FALSE), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="E32" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B32, utiva_table,11,FALSE), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
       </c>
       <c r="I32" s="14">
         <v>35000</v>
       </c>
-      <c r="J32" s="10" t="e">
-        <f>INDEX(DataSet!C7:C115, MATCH('VlookUp_Index&amp;Match'!I32, DataSet!A7:A115,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K32" s="10" t="e">
-        <f>INDEX(DataSet!B7:B115, MATCH('VlookUp_Index&amp;Match'!I32, DataSet!A7:A115,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L32" s="10" t="e">
-        <f>INDEX(DataSet!K7:K115, MATCH('VlookUp_Index&amp;Match'!I32, DataSet!A7:A115,0))</f>
-        <v>#N/A</v>
+      <c r="J32" s="10" t="str">
+        <f>IFERROR(INDEX(DataSet!C7:C115, MATCH('VlookUp_Index&amp;Match'!I32, DataSet!A7:A115,0)), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f>IFERROR(INDEX(DataSet!B7:B115, MATCH('VlookUp_Index&amp;Match'!I32, DataSet!A7:A115,0)), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="L32" s="10" t="str">
+        <f>IFERROR(INDEX(DataSet!K7:K115, MATCH('VlookUp_Index&amp;Match'!I32, DataSet!A7:A115,0)), "NOT FOUND")</f>
+        <v>NOT FOUND</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="14.25" customHeight="1"/>
@@ -16121,15 +16154,15 @@
         <v>23370</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f>VLOOKUP(B38, utiva_table,3,FALSE)</f>
+        <f t="shared" ref="C38:C44" si="6">VLOOKUP(B38, utiva_table,3,FALSE)</f>
         <v>Indonesia</v>
       </c>
       <c r="D38" s="10" t="str">
-        <f>VLOOKUP(B38, utiva_table, 2,FALSE)</f>
+        <f t="shared" ref="D38:D44" si="7">VLOOKUP(B38, utiva_table, 2,FALSE)</f>
         <v>Clark Orr</v>
       </c>
       <c r="E38" s="10">
-        <f>VLOOKUP(B38, utiva_table, 11,FALSE)</f>
+        <f t="shared" ref="E38:E44" si="8">VLOOKUP(B38, utiva_table, 11,FALSE)</f>
         <v>189</v>
       </c>
       <c r="I38" s="14">
@@ -16153,15 +16186,15 @@
         <v>23372</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f>VLOOKUP(B39, utiva_table,3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Nigeria</v>
       </c>
       <c r="D39" s="10" t="str">
-        <f>VLOOKUP(B39, utiva_table, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Phillip Perkins</v>
       </c>
       <c r="E39" s="10">
-        <f>VLOOKUP(B39, utiva_table, 11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="I39" s="14">
@@ -16185,15 +16218,15 @@
         <v>23265</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f>VLOOKUP(B40, utiva_table,3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>South Africa</v>
       </c>
       <c r="D40" s="10" t="str">
-        <f>VLOOKUP(B40, utiva_table, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Uriel Benton</v>
       </c>
       <c r="E40" s="10">
-        <f>VLOOKUP(B40, utiva_table, 11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>139.86000000000001</v>
       </c>
       <c r="I40" s="14">
@@ -16217,15 +16250,15 @@
         <v>23346</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f>VLOOKUP(B41, utiva_table,3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Bouvet Island</v>
       </c>
       <c r="D41" s="10" t="str">
-        <f>VLOOKUP(B41, utiva_table, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Aretha Patton</v>
       </c>
       <c r="E41" s="10">
-        <f>VLOOKUP(B41, utiva_table, 11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>129.87</v>
       </c>
       <c r="I41" s="14">
@@ -16249,15 +16282,15 @@
         <v>23312</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f>VLOOKUP(B42, utiva_table,3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Mayotte</v>
       </c>
       <c r="D42" s="10" t="str">
-        <f>VLOOKUP(B42, utiva_table, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Thomas Barnes</v>
       </c>
       <c r="E42" s="10">
-        <f>VLOOKUP(B42, utiva_table, 11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>111.72</v>
       </c>
       <c r="I42" s="14">
@@ -16281,15 +16314,15 @@
         <v>23322</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f>VLOOKUP(B43, utiva_table,3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Malaysia</v>
       </c>
       <c r="D43" s="10" t="str">
-        <f>VLOOKUP(B43, utiva_table, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Arsenio Knowles</v>
       </c>
       <c r="E43" s="10">
-        <f>VLOOKUP(B43, utiva_table, 11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="I43" s="14">
@@ -16313,15 +16346,15 @@
         <v>23298</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f>VLOOKUP(B44, utiva_table,3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin Islands, British</v>
       </c>
       <c r="D44" s="10" t="str">
-        <f>VLOOKUP(B44, utiva_table, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Ryder Conner</v>
       </c>
       <c r="E44" s="10">
-        <f>VLOOKUP(B44, utiva_table, 11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="I44" s="14">
